--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donofrior2\Desktop\Github\VR-Physics-Class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465A068-9222-4ECE-A485-CF47F29C86ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4C2ABF-40AF-4796-9511-07047D24B99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{EA14F4E2-B07C-4054-82BB-66532472C876}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA14F4E2-B07C-4054-82BB-66532472C876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Tasks for project</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>Actionable Goals - Netowrking Component</t>
+  </si>
+  <si>
+    <t>Server Room(Class Room)</t>
+  </si>
+  <si>
+    <t>Teacher Room</t>
+  </si>
+  <si>
+    <t>Connect Multiple Users To One Room</t>
+  </si>
+  <si>
+    <t>Stream Teachers Room</t>
+  </si>
+  <si>
+    <t>Teacher Chooses what student to view</t>
+  </si>
+  <si>
+    <t>Research Photon Limitations</t>
   </si>
 </sst>
 </file>
@@ -519,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1EC2EF-4AF6-4FAB-9B65-718FAEB1A857}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -682,6 +700,36 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A020036-09F7-4EE0-BFF5-B671DA0DA52A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
